--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.290837</v>
+        <v>0.109894</v>
       </c>
       <c r="H2">
-        <v>0.872511</v>
+        <v>0.329682</v>
       </c>
       <c r="I2">
-        <v>0.3032307482180857</v>
+        <v>0.1628895023174853</v>
       </c>
       <c r="J2">
-        <v>0.3032307482180857</v>
+        <v>0.1628895023174854</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.072165666666667</v>
+        <v>0.7435376666666667</v>
       </c>
       <c r="N2">
-        <v>3.216497</v>
+        <v>2.230613</v>
       </c>
       <c r="O2">
-        <v>0.6730206656141882</v>
+        <v>0.5505219265933909</v>
       </c>
       <c r="P2">
-        <v>0.6730206656141882</v>
+        <v>0.5505219265933909</v>
       </c>
       <c r="Q2">
-        <v>0.3118254459963333</v>
+        <v>0.08171032834066666</v>
       </c>
       <c r="R2">
-        <v>2.806429013967</v>
+        <v>0.7353929550659999</v>
       </c>
       <c r="S2">
-        <v>0.2040805600004243</v>
+        <v>0.08967424263766065</v>
       </c>
       <c r="T2">
-        <v>0.2040805600004243</v>
+        <v>0.08967424263766066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.290837</v>
+        <v>0.109894</v>
       </c>
       <c r="H3">
-        <v>0.872511</v>
+        <v>0.329682</v>
       </c>
       <c r="I3">
-        <v>0.3032307482180857</v>
+        <v>0.1628895023174853</v>
       </c>
       <c r="J3">
-        <v>0.3032307482180857</v>
+        <v>0.1628895023174854</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.359437</v>
       </c>
       <c r="O3">
-        <v>0.0752086910034012</v>
+        <v>0.08871012126664225</v>
       </c>
       <c r="P3">
-        <v>0.0752086910034012</v>
+        <v>0.08871012126664224</v>
       </c>
       <c r="Q3">
-        <v>0.03484585958966667</v>
+        <v>0.01316665655933333</v>
       </c>
       <c r="R3">
-        <v>0.313612736307</v>
+        <v>0.118499909034</v>
       </c>
       <c r="S3">
-        <v>0.02280558764546416</v>
+        <v>0.01444994750364713</v>
       </c>
       <c r="T3">
-        <v>0.02280558764546415</v>
+        <v>0.01444994750364713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.290837</v>
+        <v>0.109894</v>
       </c>
       <c r="H4">
-        <v>0.872511</v>
+        <v>0.329682</v>
       </c>
       <c r="I4">
-        <v>0.3032307482180857</v>
+        <v>0.1628895023174853</v>
       </c>
       <c r="J4">
-        <v>0.3032307482180857</v>
+        <v>0.1628895023174854</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.401087</v>
+        <v>0.487255</v>
       </c>
       <c r="N4">
-        <v>1.203261</v>
+        <v>1.461765</v>
       </c>
       <c r="O4">
-        <v>0.2517706433824106</v>
+        <v>0.3607679521399669</v>
       </c>
       <c r="P4">
-        <v>0.2517706433824106</v>
+        <v>0.3607679521399669</v>
       </c>
       <c r="Q4">
-        <v>0.116650939819</v>
+        <v>0.05354640097</v>
       </c>
       <c r="R4">
-        <v>1.049858458371</v>
+        <v>0.4819176087299999</v>
       </c>
       <c r="S4">
-        <v>0.0763446005721972</v>
+        <v>0.05876531217617758</v>
       </c>
       <c r="T4">
-        <v>0.07634460057219719</v>
+        <v>0.05876531217617759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.371307</v>
       </c>
       <c r="I5">
-        <v>0.4765813240712133</v>
+        <v>0.6775362766377415</v>
       </c>
       <c r="J5">
-        <v>0.4765813240712133</v>
+        <v>0.6775362766377416</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.072165666666667</v>
+        <v>0.7435376666666667</v>
       </c>
       <c r="N5">
-        <v>3.216497</v>
+        <v>2.230613</v>
       </c>
       <c r="O5">
-        <v>0.6730206656141882</v>
+        <v>0.5505219265933909</v>
       </c>
       <c r="P5">
-        <v>0.6730206656141882</v>
+        <v>0.5505219265933909</v>
       </c>
       <c r="Q5">
-        <v>0.4900894279532222</v>
+        <v>0.3398728023545555</v>
       </c>
       <c r="R5">
-        <v>4.410804851579</v>
+        <v>3.058855221191</v>
       </c>
       <c r="S5">
-        <v>0.3207490799456991</v>
+        <v>0.3729985763515222</v>
       </c>
       <c r="T5">
-        <v>0.3207490799456991</v>
+        <v>0.3729985763515222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.371307</v>
       </c>
       <c r="I6">
-        <v>0.4765813240712133</v>
+        <v>0.6775362766377415</v>
       </c>
       <c r="J6">
-        <v>0.4765813240712133</v>
+        <v>0.6775362766377416</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.359437</v>
       </c>
       <c r="O6">
-        <v>0.0752086910034012</v>
+        <v>0.08871012126664225</v>
       </c>
       <c r="P6">
-        <v>0.0752086910034012</v>
+        <v>0.08871012126664224</v>
       </c>
       <c r="Q6">
         <v>0.05476649712877778</v>
@@ -818,10 +818,10 @@
         <v>0.492898474159</v>
       </c>
       <c r="S6">
-        <v>0.0358430575400637</v>
+        <v>0.06010432526308332</v>
       </c>
       <c r="T6">
-        <v>0.0358430575400637</v>
+        <v>0.06010432526308333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.371307</v>
       </c>
       <c r="I7">
-        <v>0.4765813240712133</v>
+        <v>0.6775362766377415</v>
       </c>
       <c r="J7">
-        <v>0.4765813240712133</v>
+        <v>0.6775362766377416</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.401087</v>
+        <v>0.487255</v>
       </c>
       <c r="N7">
-        <v>1.203261</v>
+        <v>1.461765</v>
       </c>
       <c r="O7">
-        <v>0.2517706433824106</v>
+        <v>0.3607679521399669</v>
       </c>
       <c r="P7">
-        <v>0.2517706433824106</v>
+        <v>0.3607679521399669</v>
       </c>
       <c r="Q7">
-        <v>0.1833378035696666</v>
+        <v>0.2227253974283333</v>
       </c>
       <c r="R7">
-        <v>1.650040232127</v>
+        <v>2.004528576855</v>
       </c>
       <c r="S7">
-        <v>0.1199891865854505</v>
+        <v>0.2444333750231361</v>
       </c>
       <c r="T7">
-        <v>0.1199891865854505</v>
+        <v>0.2444333750231362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2111883333333333</v>
+        <v>0.1076573333333333</v>
       </c>
       <c r="H8">
-        <v>0.633565</v>
+        <v>0.322972</v>
       </c>
       <c r="I8">
-        <v>0.220187927710701</v>
+        <v>0.1595742210447731</v>
       </c>
       <c r="J8">
-        <v>0.220187927710701</v>
+        <v>0.1595742210447731</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.072165666666667</v>
+        <v>0.7435376666666667</v>
       </c>
       <c r="N8">
-        <v>3.216497</v>
+        <v>2.230613</v>
       </c>
       <c r="O8">
-        <v>0.6730206656141882</v>
+        <v>0.5505219265933909</v>
       </c>
       <c r="P8">
-        <v>0.6730206656141882</v>
+        <v>0.5505219265933909</v>
       </c>
       <c r="Q8">
-        <v>0.2264288802005555</v>
+        <v>0.08004728242622222</v>
       </c>
       <c r="R8">
-        <v>2.037859921805</v>
+        <v>0.7204255418359999</v>
       </c>
       <c r="S8">
-        <v>0.1481910256680647</v>
+        <v>0.08784910760420811</v>
       </c>
       <c r="T8">
-        <v>0.1481910256680647</v>
+        <v>0.08784910760420811</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2111883333333333</v>
+        <v>0.1076573333333333</v>
       </c>
       <c r="H9">
-        <v>0.633565</v>
+        <v>0.322972</v>
       </c>
       <c r="I9">
-        <v>0.220187927710701</v>
+        <v>0.1595742210447731</v>
       </c>
       <c r="J9">
-        <v>0.220187927710701</v>
+        <v>0.1595742210447731</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.359437</v>
       </c>
       <c r="O9">
-        <v>0.0752086910034012</v>
+        <v>0.08871012126664225</v>
       </c>
       <c r="P9">
-        <v>0.0752086910034012</v>
+        <v>0.08871012126664224</v>
       </c>
       <c r="Q9">
-        <v>0.02530296698944445</v>
+        <v>0.01289867630711111</v>
       </c>
       <c r="R9">
-        <v>0.227726702905</v>
+        <v>0.116088086764</v>
       </c>
       <c r="S9">
-        <v>0.01656004581787335</v>
+        <v>0.0141558484999118</v>
       </c>
       <c r="T9">
-        <v>0.01656004581787335</v>
+        <v>0.01415584849991179</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2111883333333333</v>
+        <v>0.1076573333333333</v>
       </c>
       <c r="H10">
-        <v>0.633565</v>
+        <v>0.322972</v>
       </c>
       <c r="I10">
-        <v>0.220187927710701</v>
+        <v>0.1595742210447731</v>
       </c>
       <c r="J10">
-        <v>0.220187927710701</v>
+        <v>0.1595742210447731</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.401087</v>
+        <v>0.487255</v>
       </c>
       <c r="N10">
-        <v>1.203261</v>
+        <v>1.461765</v>
       </c>
       <c r="O10">
-        <v>0.2517706433824106</v>
+        <v>0.3607679521399669</v>
       </c>
       <c r="P10">
-        <v>0.2517706433824106</v>
+        <v>0.3607679521399669</v>
       </c>
       <c r="Q10">
-        <v>0.08470489505166666</v>
+        <v>0.05245657395333333</v>
       </c>
       <c r="R10">
-        <v>0.7623440554649999</v>
+        <v>0.47210916558</v>
       </c>
       <c r="S10">
-        <v>0.05543685622476292</v>
+        <v>0.0575692649406532</v>
       </c>
       <c r="T10">
-        <v>0.05543685622476292</v>
+        <v>0.0575692649406532</v>
       </c>
     </row>
   </sheetData>
